--- a/Notes_orly.xlsx
+++ b/Notes_orly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douglaslopeze/Dropbox/Dropbox (Compte personnel)/Mon Mac (MacBook Pro de douglas)/Downloads/Web App Orly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80AA0F5-F8DA-1448-9EA5-625CC469B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F775BF-EACF-B447-B26E-F9647A2CD858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="19740" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Nathan</t>
   </si>
   <si>
-    <t>Gilles</t>
-  </si>
-  <si>
     <t>Lucien</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>MOYENNE TOTALE</t>
+  </si>
+  <si>
+    <t>Amir</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
   <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2079,62 +2079,31 @@
     </row>
     <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
-        <v>79.8</v>
-      </c>
-      <c r="C23" s="6">
-        <v>80</v>
-      </c>
-      <c r="D23" s="6">
-        <v>80</v>
-      </c>
-      <c r="E23" s="6">
-        <v>80</v>
-      </c>
-      <c r="F23" s="6">
         <v>75</v>
       </c>
-      <c r="G23" s="6">
-        <v>75</v>
-      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="6">
-        <v>75</v>
-      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="6">
-        <v>79</v>
-      </c>
-      <c r="L23" s="6">
-        <v>75</v>
-      </c>
-      <c r="M23" s="6">
-        <v>86</v>
-      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="6">
-        <v>85</v>
-      </c>
-      <c r="R23" s="6">
-        <v>75</v>
-      </c>
-      <c r="S23" s="6">
-        <v>80</v>
-      </c>
-      <c r="T23" s="6">
-        <v>80</v>
-      </c>
-      <c r="U23" s="6">
-        <v>87</v>
-      </c>
-      <c r="V23" s="6">
-        <v>85</v>
-      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2146,7 +2115,7 @@
     </row>
     <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
@@ -2219,7 +2188,7 @@
     </row>
     <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
@@ -2290,7 +2259,7 @@
     </row>
     <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
@@ -2365,7 +2334,7 @@
     </row>
     <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
@@ -2432,7 +2401,7 @@
     </row>
     <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5">
         <f t="shared" si="0"/>
@@ -2497,7 +2466,7 @@
     </row>
     <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
@@ -2568,7 +2537,7 @@
     </row>
     <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
@@ -2671,11 +2640,11 @@
     </row>
     <row r="32" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <f>AVERAGE($B$2:$B$29)</f>
-        <v>84.017836718020519</v>
+        <v>83.846408146591969</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
